--- a/team_specific_matrix/Syracuse_A.xlsx
+++ b/team_specific_matrix/Syracuse_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2037037037037037</v>
+        <v>0.1962962962962963</v>
       </c>
       <c r="C2">
-        <v>0.4953703703703703</v>
+        <v>0.5148148148148148</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02777777777777778</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1898148148148148</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08333333333333333</v>
+        <v>0.07777777777777778</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006578947368421052</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C3">
-        <v>0.03289473684210526</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04605263157894737</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.743421052631579</v>
+        <v>0.7554347826086957</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1710526315789474</v>
+        <v>0.1576086956521739</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1612903225806452</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5483870967741935</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2903225806451613</v>
+        <v>0.3095238095238095</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.28</v>
+        <v>0.2573529411764706</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.16</v>
+        <v>0.1691176470588235</v>
       </c>
       <c r="R6">
-        <v>0.1</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="S6">
-        <v>0.35</v>
+        <v>0.3602941176470588</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1481481481481481</v>
+        <v>0.1438848920863309</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009259259259259259</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="F7">
-        <v>0.02777777777777778</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1203703703703704</v>
+        <v>0.1438848920863309</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009259259259259259</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2037037037037037</v>
+        <v>0.1870503597122302</v>
       </c>
       <c r="R7">
-        <v>0.06481481481481481</v>
+        <v>0.06474820143884892</v>
       </c>
       <c r="S7">
-        <v>0.4166666666666667</v>
+        <v>0.4028776978417266</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09570957095709572</v>
+        <v>0.09375</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0165016501650165</v>
+        <v>0.01822916666666667</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0462046204620462</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.066006600660066</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0198019801980198</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2079207920792079</v>
+        <v>0.2135416666666667</v>
       </c>
       <c r="R8">
-        <v>0.0891089108910891</v>
+        <v>0.09635416666666667</v>
       </c>
       <c r="S8">
-        <v>0.4587458745874587</v>
+        <v>0.4479166666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1185185185185185</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02222222222222222</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="E9">
-        <v>0.007407407407407408</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="F9">
-        <v>0.04444444444444445</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05185185185185185</v>
+        <v>0.06321839080459771</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02222222222222222</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2074074074074074</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="R9">
-        <v>0.08888888888888889</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="S9">
-        <v>0.4370370370370371</v>
+        <v>0.4310344827586207</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08730964467005076</v>
+        <v>0.08794788273615635</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0182741116751269</v>
+        <v>0.02117263843648208</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04467005076142132</v>
+        <v>0.0504885993485342</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1725888324873096</v>
+        <v>0.1604234527687296</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03350253807106599</v>
+        <v>0.02931596091205212</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2203045685279188</v>
+        <v>0.2255700325732899</v>
       </c>
       <c r="R10">
-        <v>0.0751269035532995</v>
+        <v>0.0741042345276873</v>
       </c>
       <c r="S10">
-        <v>0.3482233502538071</v>
+        <v>0.3509771986970684</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1453488372093023</v>
+        <v>0.1278538812785388</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1337209302325581</v>
+        <v>0.1324200913242009</v>
       </c>
       <c r="K11">
-        <v>0.186046511627907</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="L11">
-        <v>0.5232558139534884</v>
+        <v>0.54337899543379</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01162790697674419</v>
+        <v>0.0182648401826484</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2272727272727273</v>
+        <v>0.2288135593220339</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02272727272727273</v>
+        <v>0.03389830508474576</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7037037037037037</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1851851851851852</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1111111111111111</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005917159763313609</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1420118343195266</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="I15">
-        <v>0.05917159763313609</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="J15">
-        <v>0.4378698224852071</v>
+        <v>0.4334975369458128</v>
       </c>
       <c r="K15">
-        <v>0.0650887573964497</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0650887573964497</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2248520710059172</v>
+        <v>0.2315270935960591</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006134969325153374</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.147239263803681</v>
+        <v>0.1310679611650485</v>
       </c>
       <c r="I16">
-        <v>0.06134969325153374</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="J16">
-        <v>0.5030674846625767</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="K16">
-        <v>0.08588957055214724</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01226993865030675</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="O16">
-        <v>0.049079754601227</v>
+        <v>0.04368932038834952</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1349693251533742</v>
+        <v>0.1504854368932039</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01333333333333333</v>
+        <v>0.0148619957537155</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1626666666666667</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="I17">
-        <v>0.06133333333333333</v>
+        <v>0.06794055201698514</v>
       </c>
       <c r="J17">
-        <v>0.4213333333333333</v>
+        <v>0.4246284501061571</v>
       </c>
       <c r="K17">
-        <v>0.1253333333333333</v>
+        <v>0.118895966029724</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.016</v>
+        <v>0.01698513800424628</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.064</v>
+        <v>0.06581740976645435</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.136</v>
+        <v>0.1380042462845011</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1021897810218978</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="I18">
-        <v>0.1021897810218978</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="J18">
-        <v>0.4379562043795621</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="K18">
-        <v>0.1167883211678832</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0145985401459854</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1021897810218978</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1240875912408759</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00909090909090909</v>
+        <v>0.008028545941123996</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2113636363636364</v>
+        <v>0.223907225691347</v>
       </c>
       <c r="I19">
-        <v>0.08977272727272727</v>
+        <v>0.09099018733273863</v>
       </c>
       <c r="J19">
-        <v>0.3875</v>
+        <v>0.3791257805530776</v>
       </c>
       <c r="K19">
-        <v>0.09545454545454546</v>
+        <v>0.09455842997323818</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01931818181818182</v>
+        <v>0.01784121320249777</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0625</v>
+        <v>0.05798394290811775</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.125</v>
+        <v>0.1275646743978591</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Syracuse_A.xlsx
+++ b/team_specific_matrix/Syracuse_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1962962962962963</v>
+        <v>0.1936619718309859</v>
       </c>
       <c r="C2">
-        <v>0.5148148148148148</v>
+        <v>0.5211267605633803</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02592592592592593</v>
+        <v>0.02464788732394366</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1851851851851852</v>
+        <v>0.1795774647887324</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07777777777777778</v>
+        <v>0.08098591549295775</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0108695652173913</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="C3">
-        <v>0.03260869565217391</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04347826086956522</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7554347826086957</v>
+        <v>0.7668393782383419</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1576086956521739</v>
+        <v>0.150259067357513</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.119047619047619</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3095238095238095</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05882352941176471</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01470588235294118</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03676470588235294</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2573529411764706</v>
+        <v>0.2620689655172414</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01470588235294118</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1691176470588235</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R6">
-        <v>0.08823529411764706</v>
+        <v>0.08275862068965517</v>
       </c>
       <c r="S6">
-        <v>0.3602941176470588</v>
+        <v>0.3586206896551724</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1438848920863309</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007194244604316547</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="E7">
-        <v>0.007194244604316547</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="F7">
-        <v>0.02877697841726619</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1438848920863309</v>
+        <v>0.1496598639455782</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01438848920863309</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1870503597122302</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="R7">
-        <v>0.06474820143884892</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="S7">
-        <v>0.4028776978417266</v>
+        <v>0.3945578231292517</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09375</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01822916666666667</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04166666666666666</v>
+        <v>0.04245283018867924</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06770833333333333</v>
+        <v>0.06367924528301887</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02083333333333333</v>
+        <v>0.02122641509433962</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2135416666666667</v>
+        <v>0.2240566037735849</v>
       </c>
       <c r="R8">
-        <v>0.09635416666666667</v>
+        <v>0.09198113207547169</v>
       </c>
       <c r="S8">
-        <v>0.4479166666666667</v>
+        <v>0.4433962264150944</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1379310344827586</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02298850574712644</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="E9">
-        <v>0.01149425287356322</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="F9">
-        <v>0.04022988505747126</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06321839080459771</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02298850574712644</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1954022988505747</v>
+        <v>0.1989528795811518</v>
       </c>
       <c r="R9">
-        <v>0.07471264367816093</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="S9">
-        <v>0.4310344827586207</v>
+        <v>0.4240837696335079</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08794788273615635</v>
+        <v>0.08708938120702826</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02117263843648208</v>
+        <v>0.02444614209320092</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0504885993485342</v>
+        <v>0.04889228418640183</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1604234527687296</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02931596091205212</v>
+        <v>0.02750190985485103</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2255700325732899</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="R10">
-        <v>0.0741042345276873</v>
+        <v>0.07333842627960276</v>
       </c>
       <c r="S10">
-        <v>0.3509771986970684</v>
+        <v>0.3491214667685256</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1278538812785388</v>
+        <v>0.1283185840707965</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1324200913242009</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="K11">
-        <v>0.1780821917808219</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="L11">
-        <v>0.54337899543379</v>
+        <v>0.5442477876106194</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0182648401826484</v>
+        <v>0.01769911504424779</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7288135593220338</v>
+        <v>0.7377049180327869</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2288135593220339</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="K12">
-        <v>0.008474576271186441</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03389830508474576</v>
+        <v>0.03278688524590164</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7222222222222222</v>
+        <v>0.725</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1944444444444444</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009852216748768473</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1280788177339902</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="I15">
-        <v>0.05911330049261083</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="J15">
-        <v>0.4334975369458128</v>
+        <v>0.427906976744186</v>
       </c>
       <c r="K15">
-        <v>0.05911330049261083</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009852216748768473</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06896551724137931</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2315270935960591</v>
+        <v>0.2325581395348837</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009708737864077669</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1310679611650485</v>
+        <v>0.1396396396396396</v>
       </c>
       <c r="I16">
-        <v>0.06310679611650485</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="J16">
-        <v>0.5048543689320388</v>
+        <v>0.490990990990991</v>
       </c>
       <c r="K16">
-        <v>0.07766990291262135</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01456310679611651</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="N16">
-        <v>0.004854368932038835</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="O16">
-        <v>0.04368932038834952</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1504854368932039</v>
+        <v>0.1531531531531531</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0148619957537155</v>
+        <v>0.01727447216890595</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1528662420382166</v>
+        <v>0.1593090211132438</v>
       </c>
       <c r="I17">
-        <v>0.06794055201698514</v>
+        <v>0.07101727447216891</v>
       </c>
       <c r="J17">
-        <v>0.4246284501061571</v>
+        <v>0.4203454894433781</v>
       </c>
       <c r="K17">
-        <v>0.118895966029724</v>
+        <v>0.1151631477927063</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01698513800424628</v>
+        <v>0.01919385796545105</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06581740976645435</v>
+        <v>0.0671785028790787</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1380042462845011</v>
+        <v>0.1305182341650672</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.09523809523809523</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="I18">
-        <v>0.09523809523809523</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="J18">
-        <v>0.4583333333333333</v>
+        <v>0.4636871508379888</v>
       </c>
       <c r="K18">
-        <v>0.119047619047619</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01785714285714286</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09523809523809523</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.119047619047619</v>
+        <v>0.1173184357541899</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008028545941123996</v>
+        <v>0.007563025210084034</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.223907225691347</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="I19">
-        <v>0.09099018733273863</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="J19">
-        <v>0.3791257805530776</v>
+        <v>0.3815126050420168</v>
       </c>
       <c r="K19">
-        <v>0.09455842997323818</v>
+        <v>0.08907563025210084</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01784121320249777</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05798394290811775</v>
+        <v>0.05798319327731093</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1275646743978591</v>
+        <v>0.1243697478991597</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Syracuse_A.xlsx
+++ b/team_specific_matrix/Syracuse_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1936619718309859</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.5211267605633803</v>
+        <v>0.5125</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02464788732394366</v>
+        <v>0.021875</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1795774647887324</v>
+        <v>0.18125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08098591549295775</v>
+        <v>0.08437500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01036269430051814</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="C3">
-        <v>0.0310880829015544</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04145077720207254</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7668393782383419</v>
+        <v>0.7607655502392344</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.150259067357513</v>
+        <v>0.1626794258373206</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1041666666666667</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.625</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2708333333333333</v>
+        <v>0.2549019607843137</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05517241379310345</v>
+        <v>0.06289308176100629</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01379310344827586</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03448275862068965</v>
+        <v>0.0440251572327044</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2620689655172414</v>
+        <v>0.2515723270440252</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02068965517241379</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1724137931034483</v>
+        <v>0.1823899371069182</v>
       </c>
       <c r="R6">
-        <v>0.08275862068965517</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="S6">
-        <v>0.3586206896551724</v>
+        <v>0.3396226415094339</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1360544217687075</v>
+        <v>0.1349693251533742</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006802721088435374</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="E7">
-        <v>0.006802721088435374</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="F7">
-        <v>0.0272108843537415</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1496598639455782</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01360544217687075</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1836734693877551</v>
+        <v>0.1717791411042945</v>
       </c>
       <c r="R7">
-        <v>0.08163265306122448</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="S7">
-        <v>0.3945578231292517</v>
+        <v>0.4110429447852761</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09433962264150944</v>
+        <v>0.09347826086956522</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01886792452830189</v>
+        <v>0.01956521739130435</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04245283018867924</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06367924528301887</v>
+        <v>0.06304347826086956</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02122641509433962</v>
+        <v>0.01956521739130435</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2240566037735849</v>
+        <v>0.2260869565217391</v>
       </c>
       <c r="R8">
-        <v>0.09198113207547169</v>
+        <v>0.09347826086956522</v>
       </c>
       <c r="S8">
-        <v>0.4433962264150944</v>
+        <v>0.441304347826087</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1413612565445026</v>
+        <v>0.1365853658536585</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02094240837696335</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="E9">
-        <v>0.01047120418848168</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="F9">
-        <v>0.03664921465968586</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07329842931937172</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02094240837696335</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1989528795811518</v>
+        <v>0.2097560975609756</v>
       </c>
       <c r="R9">
-        <v>0.07329842931937172</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="S9">
-        <v>0.4240837696335079</v>
+        <v>0.424390243902439</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08708938120702826</v>
+        <v>0.09438040345821326</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02444614209320092</v>
+        <v>0.02449567723342939</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04889228418640183</v>
+        <v>0.04899135446685879</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1558441558441558</v>
+        <v>0.1505763688760807</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02750190985485103</v>
+        <v>0.02809798270893372</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2337662337662338</v>
+        <v>0.2334293948126801</v>
       </c>
       <c r="R10">
-        <v>0.07333842627960276</v>
+        <v>0.07420749279538905</v>
       </c>
       <c r="S10">
-        <v>0.3491214667685256</v>
+        <v>0.345821325648415</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1283185840707965</v>
+        <v>0.1244813278008299</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1327433628318584</v>
+        <v>0.1244813278008299</v>
       </c>
       <c r="K11">
-        <v>0.1769911504424779</v>
+        <v>0.1701244813278008</v>
       </c>
       <c r="L11">
-        <v>0.5442477876106194</v>
+        <v>0.5643153526970954</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01769911504424779</v>
+        <v>0.01659751037344398</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7377049180327869</v>
+        <v>0.7426470588235294</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2213114754098361</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K12">
-        <v>0.00819672131147541</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03278688524590164</v>
+        <v>0.04411764705882353</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.725</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.075</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009302325581395349</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1348837209302326</v>
+        <v>0.1341991341991342</v>
       </c>
       <c r="I15">
-        <v>0.06046511627906977</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J15">
-        <v>0.427906976744186</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="K15">
-        <v>0.05581395348837209</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01395348837209302</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="O15">
-        <v>0.06511627906976744</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2325581395348837</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009009009009009009</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1396396396396396</v>
+        <v>0.1493775933609958</v>
       </c>
       <c r="I16">
-        <v>0.06306306306306306</v>
+        <v>0.06639004149377593</v>
       </c>
       <c r="J16">
-        <v>0.490990990990991</v>
+        <v>0.4937759336099585</v>
       </c>
       <c r="K16">
-        <v>0.07207207207207207</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01801801801801802</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="N16">
-        <v>0.004504504504504504</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="O16">
-        <v>0.04954954954954955</v>
+        <v>0.04564315352697095</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1531531531531531</v>
+        <v>0.1452282157676349</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01727447216890595</v>
+        <v>0.01792114695340502</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1593090211132438</v>
+        <v>0.1577060931899641</v>
       </c>
       <c r="I17">
-        <v>0.07101727447216891</v>
+        <v>0.07706093189964158</v>
       </c>
       <c r="J17">
-        <v>0.4203454894433781</v>
+        <v>0.4211469534050179</v>
       </c>
       <c r="K17">
-        <v>0.1151631477927063</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01919385796545105</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0671785028790787</v>
+        <v>0.07168458781362007</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1305182341650672</v>
+        <v>0.1254480286738351</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1005586592178771</v>
+        <v>0.109375</v>
       </c>
       <c r="I18">
-        <v>0.0893854748603352</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="J18">
-        <v>0.4636871508379888</v>
+        <v>0.4635416666666667</v>
       </c>
       <c r="K18">
-        <v>0.1229050279329609</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01675977653631285</v>
+        <v>0.015625</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0893854748603352</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1173184357541899</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007563025210084034</v>
+        <v>0.00864100549882168</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2285714285714286</v>
+        <v>0.2325216025137471</v>
       </c>
       <c r="I19">
-        <v>0.09411764705882353</v>
+        <v>0.09112333071484682</v>
       </c>
       <c r="J19">
-        <v>0.3815126050420168</v>
+        <v>0.3786331500392773</v>
       </c>
       <c r="K19">
-        <v>0.08907563025210084</v>
+        <v>0.09112333071484682</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01680672268907563</v>
+        <v>0.0180675569520817</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05798319327731093</v>
+        <v>0.05577376276512176</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1243697478991597</v>
+        <v>0.1241162608012569</v>
       </c>
     </row>
   </sheetData>
